--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Dcn-Met.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Dcn-Met.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.975819</v>
+        <v>18.35024466666666</v>
       </c>
       <c r="H2">
-        <v>8.927457</v>
+        <v>55.050734</v>
       </c>
       <c r="I2">
-        <v>0.003039595464778879</v>
+        <v>0.01838745945037238</v>
       </c>
       <c r="J2">
-        <v>0.003039595464778879</v>
+        <v>0.01838745945037238</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.940154666666667</v>
+        <v>3.890652666666667</v>
       </c>
       <c r="N2">
-        <v>5.820464</v>
+        <v>11.671958</v>
       </c>
       <c r="O2">
-        <v>0.04123024092854888</v>
+        <v>0.06476544661321246</v>
       </c>
       <c r="P2">
-        <v>0.04123024092854888</v>
+        <v>0.06476544661321246</v>
       </c>
       <c r="Q2">
-        <v>5.773549120005334</v>
+        <v>71.39442834635244</v>
       </c>
       <c r="R2">
-        <v>51.961942080048</v>
+        <v>642.549855117172</v>
       </c>
       <c r="S2">
-        <v>0.0001253232533381577</v>
+        <v>0.001190872023385701</v>
       </c>
       <c r="T2">
-        <v>0.0001253232533381577</v>
+        <v>0.001190872023385702</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.975819</v>
+        <v>18.35024466666666</v>
       </c>
       <c r="H3">
-        <v>8.927457</v>
+        <v>55.050734</v>
       </c>
       <c r="I3">
-        <v>0.003039595464778879</v>
+        <v>0.01838745945037238</v>
       </c>
       <c r="J3">
-        <v>0.003039595464778879</v>
+        <v>0.01838745945037238</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>5.352974</v>
       </c>
       <c r="O3">
-        <v>0.03791869646548077</v>
+        <v>0.02970262160118417</v>
       </c>
       <c r="P3">
-        <v>0.03791869646548075</v>
+        <v>0.02970262160118416</v>
       </c>
       <c r="Q3">
-        <v>5.309827245235333</v>
+        <v>32.74279419810177</v>
       </c>
       <c r="R3">
-        <v>47.788445207118</v>
+        <v>294.685147782916</v>
       </c>
       <c r="S3">
-        <v>0.0001152574978068022</v>
+        <v>0.0005461557502615286</v>
       </c>
       <c r="T3">
-        <v>0.0001152574978068022</v>
+        <v>0.0005461557502615287</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.975819</v>
+        <v>18.35024466666666</v>
       </c>
       <c r="H4">
-        <v>8.927457</v>
+        <v>55.050734</v>
       </c>
       <c r="I4">
-        <v>0.003039595464778879</v>
+        <v>0.01838745945037238</v>
       </c>
       <c r="J4">
-        <v>0.003039595464778879</v>
+        <v>0.01838745945037238</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.084400666666667</v>
+        <v>14.15274033333333</v>
       </c>
       <c r="N4">
-        <v>27.253202</v>
+        <v>42.458221</v>
       </c>
       <c r="O4">
-        <v>0.1930526646216539</v>
+        <v>0.2355924897491472</v>
       </c>
       <c r="P4">
-        <v>0.1930526646216539</v>
+        <v>0.2355924897491471</v>
       </c>
       <c r="Q4">
-        <v>27.03353210747933</v>
+        <v>259.7062478204682</v>
       </c>
       <c r="R4">
-        <v>243.301788967314</v>
+        <v>2337.356230384214</v>
       </c>
       <c r="S4">
-        <v>0.0005868020038474572</v>
+        <v>0.004331947352074714</v>
       </c>
       <c r="T4">
-        <v>0.0005868020038474572</v>
+        <v>0.004331947352074715</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.975819</v>
+        <v>18.35024466666666</v>
       </c>
       <c r="H5">
-        <v>8.927457</v>
+        <v>55.050734</v>
       </c>
       <c r="I5">
-        <v>0.003039595464778879</v>
+        <v>0.01838745945037238</v>
       </c>
       <c r="J5">
-        <v>0.003039595464778879</v>
+        <v>0.01838745945037238</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.348104</v>
+        <v>37.09331533333333</v>
       </c>
       <c r="N5">
-        <v>88.04431199999999</v>
+        <v>111.279946</v>
       </c>
       <c r="O5">
-        <v>0.6236767714993731</v>
+        <v>0.6174709848839556</v>
       </c>
       <c r="P5">
-        <v>0.6236767714993731</v>
+        <v>0.6174709848839556</v>
       </c>
       <c r="Q5">
-        <v>87.33464549717598</v>
+        <v>680.6714118644848</v>
       </c>
       <c r="R5">
-        <v>786.011809474584</v>
+        <v>6126.042706780364</v>
       </c>
       <c r="S5">
-        <v>0.001895725086137427</v>
+        <v>0.01135372269633523</v>
       </c>
       <c r="T5">
-        <v>0.001895725086137428</v>
+        <v>0.01135372269633523</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.975819</v>
+        <v>18.35024466666666</v>
       </c>
       <c r="H6">
-        <v>8.927457</v>
+        <v>55.050734</v>
       </c>
       <c r="I6">
-        <v>0.003039595464778879</v>
+        <v>0.01838745945037238</v>
       </c>
       <c r="J6">
-        <v>0.003039595464778879</v>
+        <v>0.01838745945037238</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.013948333333333</v>
+        <v>1.368174333333333</v>
       </c>
       <c r="N6">
-        <v>3.041845</v>
+        <v>4.104523</v>
       </c>
       <c r="O6">
-        <v>0.02154742340426842</v>
+        <v>0.02277520748697028</v>
       </c>
       <c r="P6">
-        <v>0.02154742340426842</v>
+        <v>0.02277520748697028</v>
       </c>
       <c r="Q6">
-        <v>3.017326715351667</v>
+        <v>25.10633376332022</v>
       </c>
       <c r="R6">
-        <v>27.155940438165</v>
+        <v>225.957003869882</v>
       </c>
       <c r="S6">
-        <v>6.549545045728456E-05</v>
+        <v>0.0004187782041404835</v>
       </c>
       <c r="T6">
-        <v>6.549545045728456E-05</v>
+        <v>0.0004187782041404835</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.975819</v>
+        <v>18.35024466666666</v>
       </c>
       <c r="H7">
-        <v>8.927457</v>
+        <v>55.050734</v>
       </c>
       <c r="I7">
-        <v>0.003039595464778879</v>
+        <v>0.01838745945037238</v>
       </c>
       <c r="J7">
-        <v>0.003039595464778879</v>
+        <v>0.01838745945037238</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.885660666666666</v>
+        <v>1.783761666666667</v>
       </c>
       <c r="N7">
-        <v>11.656982</v>
+        <v>5.351285</v>
       </c>
       <c r="O7">
-        <v>0.08257420308067495</v>
+        <v>0.02969324966553038</v>
       </c>
       <c r="P7">
-        <v>0.08257420308067492</v>
+        <v>0.02969324966553038</v>
       </c>
       <c r="Q7">
-        <v>11.56302283941933</v>
+        <v>32.73246301035444</v>
       </c>
       <c r="R7">
-        <v>104.067205554774</v>
+        <v>294.59216709319</v>
       </c>
       <c r="S7">
-        <v>0.0002509921731917497</v>
+        <v>0.0005459834241747231</v>
       </c>
       <c r="T7">
-        <v>0.0002509921731917496</v>
+        <v>0.0005459834241747231</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>2875.806458</v>
       </c>
       <c r="I8">
-        <v>0.9791464990891148</v>
+        <v>0.9605462233000205</v>
       </c>
       <c r="J8">
-        <v>0.9791464990891148</v>
+        <v>0.9605462233000205</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.940154666666667</v>
+        <v>3.890652666666667</v>
       </c>
       <c r="N8">
-        <v>5.820464</v>
+        <v>11.671958</v>
       </c>
       <c r="O8">
-        <v>0.04123024092854888</v>
+        <v>0.06476544661321246</v>
       </c>
       <c r="P8">
-        <v>0.04123024092854888</v>
+        <v>0.06476544661321246</v>
       </c>
       <c r="Q8">
-        <v>1859.836439972946</v>
+        <v>3729.588021544974</v>
       </c>
       <c r="R8">
-        <v>16738.52795975651</v>
+        <v>33566.29219390477</v>
       </c>
       <c r="S8">
-        <v>0.04037044606178938</v>
+        <v>0.06221020514466033</v>
       </c>
       <c r="T8">
-        <v>0.04037044606178937</v>
+        <v>0.06221020514466033</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>2875.806458</v>
       </c>
       <c r="I9">
-        <v>0.9791464990891148</v>
+        <v>0.9605462233000205</v>
       </c>
       <c r="J9">
-        <v>0.9791464990891148</v>
+        <v>0.9605462233000205</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>5.352974</v>
       </c>
       <c r="O9">
-        <v>0.03791869646548077</v>
+        <v>0.02970262160118417</v>
       </c>
       <c r="P9">
-        <v>0.03791869646548075</v>
+        <v>0.02970262160118416</v>
       </c>
       <c r="Q9">
         <v>1710.457466522899</v>
@@ -1013,10 +1013,10 @@
         <v>15394.11719870609</v>
       </c>
       <c r="S9">
-        <v>0.03712795889419828</v>
+        <v>0.02853074100112706</v>
       </c>
       <c r="T9">
-        <v>0.03712795889419827</v>
+        <v>0.02853074100112706</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>2875.806458</v>
       </c>
       <c r="I10">
-        <v>0.9791464990891148</v>
+        <v>0.9605462233000205</v>
       </c>
       <c r="J10">
-        <v>0.9791464990891148</v>
+        <v>0.9605462233000205</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.084400666666667</v>
+        <v>14.15274033333333</v>
       </c>
       <c r="N10">
-        <v>27.253202</v>
+        <v>42.458221</v>
       </c>
       <c r="O10">
-        <v>0.1930526646216539</v>
+        <v>0.2355924897491472</v>
       </c>
       <c r="P10">
-        <v>0.1930526646216539</v>
+        <v>0.2355924897491471</v>
       </c>
       <c r="Q10">
-        <v>8708.326034753169</v>
+        <v>13566.84734966569</v>
       </c>
       <c r="R10">
-        <v>78374.93431277853</v>
+        <v>122101.6261469912</v>
       </c>
       <c r="S10">
-        <v>0.1890268407041175</v>
+        <v>0.2262974762663921</v>
       </c>
       <c r="T10">
-        <v>0.1890268407041174</v>
+        <v>0.2262974762663921</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>2875.806458</v>
       </c>
       <c r="I11">
-        <v>0.9791464990891148</v>
+        <v>0.9605462233000205</v>
       </c>
       <c r="J11">
-        <v>0.9791464990891148</v>
+        <v>0.9605462233000205</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.348104</v>
+        <v>37.09331533333333</v>
       </c>
       <c r="N11">
-        <v>88.04431199999999</v>
+        <v>111.279946</v>
       </c>
       <c r="O11">
-        <v>0.6236767714993731</v>
+        <v>0.6174709848839556</v>
       </c>
       <c r="P11">
-        <v>0.6236767714993731</v>
+        <v>0.6174709848839556</v>
       </c>
       <c r="Q11">
-        <v>28133.15567108521</v>
+        <v>35557.73192807681</v>
       </c>
       <c r="R11">
-        <v>253198.4010397669</v>
+        <v>320019.5873526913</v>
       </c>
       <c r="S11">
-        <v>0.6106709273768129</v>
+        <v>0.5931094225276276</v>
       </c>
       <c r="T11">
-        <v>0.6106709273768129</v>
+        <v>0.5931094225276276</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>2875.806458</v>
       </c>
       <c r="I12">
-        <v>0.9791464990891148</v>
+        <v>0.9605462233000205</v>
       </c>
       <c r="J12">
-        <v>0.9791464990891148</v>
+        <v>0.9605462233000205</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.013948333333333</v>
+        <v>1.368174333333333</v>
       </c>
       <c r="N12">
-        <v>3.041845</v>
+        <v>4.104523</v>
       </c>
       <c r="O12">
-        <v>0.02154742340426842</v>
+        <v>0.02277520748697028</v>
       </c>
       <c r="P12">
-        <v>0.02154742340426842</v>
+        <v>0.02277520748697028</v>
       </c>
       <c r="Q12">
-        <v>971.9730550261124</v>
+        <v>1311.534861156615</v>
       </c>
       <c r="R12">
-        <v>8747.757495235011</v>
+        <v>11803.81375040954</v>
       </c>
       <c r="S12">
-        <v>0.02109808419068028</v>
+        <v>0.02187663953648365</v>
       </c>
       <c r="T12">
-        <v>0.02109808419068028</v>
+        <v>0.02187663953648365</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>2875.806458</v>
       </c>
       <c r="I13">
-        <v>0.9791464990891148</v>
+        <v>0.9605462233000205</v>
       </c>
       <c r="J13">
-        <v>0.9791464990891148</v>
+        <v>0.9605462233000205</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.885660666666666</v>
+        <v>1.783761666666667</v>
       </c>
       <c r="N13">
-        <v>11.656982</v>
+        <v>5.351285</v>
       </c>
       <c r="O13">
-        <v>0.08257420308067495</v>
+        <v>0.02969324966553038</v>
       </c>
       <c r="P13">
-        <v>0.08257420308067492</v>
+        <v>0.02969324966553038</v>
       </c>
       <c r="Q13">
-        <v>3724.802679598862</v>
+        <v>1709.917773510948</v>
       </c>
       <c r="R13">
-        <v>33523.22411638976</v>
+        <v>15389.25996159853</v>
       </c>
       <c r="S13">
-        <v>0.08085224186151647</v>
+        <v>0.0285217388237298</v>
       </c>
       <c r="T13">
-        <v>0.08085224186151645</v>
+        <v>0.0285217388237298</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.5202786666666667</v>
+        <v>0.1039356666666667</v>
       </c>
       <c r="H14">
-        <v>1.560836</v>
+        <v>0.311807</v>
       </c>
       <c r="I14">
-        <v>0.0005314290538575102</v>
+        <v>0.0001041464509599865</v>
       </c>
       <c r="J14">
-        <v>0.0005314290538575102</v>
+        <v>0.0001041464509599865</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.940154666666667</v>
+        <v>3.890652666666667</v>
       </c>
       <c r="N14">
-        <v>5.820464</v>
+        <v>11.671958</v>
       </c>
       <c r="O14">
-        <v>0.04123024092854888</v>
+        <v>0.06476544661321246</v>
       </c>
       <c r="P14">
-        <v>0.04123024092854888</v>
+        <v>0.06476544661321246</v>
       </c>
       <c r="Q14">
-        <v>1.009421083100444</v>
+        <v>0.4043775786784444</v>
       </c>
       <c r="R14">
-        <v>9.084789747904001</v>
+        <v>3.639398208106</v>
       </c>
       <c r="S14">
-        <v>2.191094792697593E-05</v>
+        <v>6.745091409604554E-06</v>
       </c>
       <c r="T14">
-        <v>2.191094792697592E-05</v>
+        <v>6.745091409604555E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.5202786666666667</v>
+        <v>0.1039356666666667</v>
       </c>
       <c r="H15">
-        <v>1.560836</v>
+        <v>0.311807</v>
       </c>
       <c r="I15">
-        <v>0.0005314290538575102</v>
+        <v>0.0001041464509599865</v>
       </c>
       <c r="J15">
-        <v>0.0005314290538575102</v>
+        <v>0.0001041464509599865</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>5.352974</v>
       </c>
       <c r="O15">
-        <v>0.03791869646548077</v>
+        <v>0.02970262160118417</v>
       </c>
       <c r="P15">
-        <v>0.03791869646548075</v>
+        <v>0.02970262160118416</v>
       </c>
       <c r="Q15">
-        <v>0.9283460584737777</v>
+        <v>0.1854549737797778</v>
       </c>
       <c r="R15">
-        <v>8.355114526264</v>
+        <v>1.669094764018</v>
       </c>
       <c r="S15">
-        <v>2.015109698616056E-05</v>
+        <v>3.093422623970762E-06</v>
       </c>
       <c r="T15">
-        <v>2.015109698616055E-05</v>
+        <v>3.093422623970762E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.5202786666666667</v>
+        <v>0.1039356666666667</v>
       </c>
       <c r="H16">
-        <v>1.560836</v>
+        <v>0.311807</v>
       </c>
       <c r="I16">
-        <v>0.0005314290538575102</v>
+        <v>0.0001041464509599865</v>
       </c>
       <c r="J16">
-        <v>0.0005314290538575102</v>
+        <v>0.0001041464509599865</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.084400666666667</v>
+        <v>14.15274033333333</v>
       </c>
       <c r="N16">
-        <v>27.253202</v>
+        <v>42.458221</v>
       </c>
       <c r="O16">
-        <v>0.1930526646216539</v>
+        <v>0.2355924897491472</v>
       </c>
       <c r="P16">
-        <v>0.1930526646216539</v>
+        <v>0.2355924897491471</v>
       </c>
       <c r="Q16">
-        <v>4.726419866319111</v>
+        <v>1.470974501705222</v>
       </c>
       <c r="R16">
-        <v>42.537778796872</v>
+        <v>13.238770515347</v>
       </c>
       <c r="S16">
-        <v>0.0001025937949045568</v>
+        <v>2.453612168020068E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001025937949045568</v>
+        <v>2.453612168020068E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.5202786666666667</v>
+        <v>0.1039356666666667</v>
       </c>
       <c r="H17">
-        <v>1.560836</v>
+        <v>0.311807</v>
       </c>
       <c r="I17">
-        <v>0.0005314290538575102</v>
+        <v>0.0001041464509599865</v>
       </c>
       <c r="J17">
-        <v>0.0005314290538575102</v>
+        <v>0.0001041464509599865</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>29.348104</v>
+        <v>37.09331533333333</v>
       </c>
       <c r="N17">
-        <v>88.04431199999999</v>
+        <v>111.279946</v>
       </c>
       <c r="O17">
-        <v>0.6236767714993731</v>
+        <v>0.6174709848839556</v>
       </c>
       <c r="P17">
-        <v>0.6236767714993731</v>
+        <v>0.6174709848839556</v>
       </c>
       <c r="Q17">
-        <v>15.26919241831467</v>
+        <v>3.855318458046888</v>
       </c>
       <c r="R17">
-        <v>137.422731764832</v>
+        <v>34.697866122422</v>
       </c>
       <c r="S17">
-        <v>0.0003314399565908184</v>
+        <v>6.430741164643144E-05</v>
       </c>
       <c r="T17">
-        <v>0.0003314399565908184</v>
+        <v>6.430741164643145E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.5202786666666667</v>
+        <v>0.1039356666666667</v>
       </c>
       <c r="H18">
-        <v>1.560836</v>
+        <v>0.311807</v>
       </c>
       <c r="I18">
-        <v>0.0005314290538575102</v>
+        <v>0.0001041464509599865</v>
       </c>
       <c r="J18">
-        <v>0.0005314290538575102</v>
+        <v>0.0001041464509599865</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.013948333333333</v>
+        <v>1.368174333333333</v>
       </c>
       <c r="N18">
-        <v>3.041845</v>
+        <v>4.104523</v>
       </c>
       <c r="O18">
-        <v>0.02154742340426842</v>
+        <v>0.02277520748697028</v>
       </c>
       <c r="P18">
-        <v>0.02154742340426842</v>
+        <v>0.02277520748697028</v>
       </c>
       <c r="Q18">
-        <v>0.5275356869355556</v>
+        <v>0.1422021114512222</v>
       </c>
       <c r="R18">
-        <v>4.747821182420001</v>
+        <v>1.279819003061</v>
       </c>
       <c r="S18">
-        <v>1.145092683279754E-05</v>
+        <v>2.371957029645267E-06</v>
       </c>
       <c r="T18">
-        <v>1.145092683279754E-05</v>
+        <v>2.371957029645268E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.5202786666666667</v>
+        <v>0.1039356666666667</v>
       </c>
       <c r="H19">
-        <v>1.560836</v>
+        <v>0.311807</v>
       </c>
       <c r="I19">
-        <v>0.0005314290538575102</v>
+        <v>0.0001041464509599865</v>
       </c>
       <c r="J19">
-        <v>0.0005314290538575102</v>
+        <v>0.0001041464509599865</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.885660666666666</v>
+        <v>1.783761666666667</v>
       </c>
       <c r="N19">
-        <v>11.656982</v>
+        <v>5.351285</v>
       </c>
       <c r="O19">
-        <v>0.08257420308067495</v>
+        <v>0.02969324966553038</v>
       </c>
       <c r="P19">
-        <v>0.08257420308067492</v>
+        <v>0.02969324966553038</v>
       </c>
       <c r="Q19">
-        <v>2.021626350772444</v>
+        <v>0.1853964579994444</v>
       </c>
       <c r="R19">
-        <v>18.194637156952</v>
+        <v>1.668568121995</v>
       </c>
       <c r="S19">
-        <v>4.388233061620099E-05</v>
+        <v>3.092446570133795E-06</v>
       </c>
       <c r="T19">
-        <v>4.388233061620098E-05</v>
+        <v>3.092446570133795E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>14.723214</v>
+        <v>20.12458366666667</v>
       </c>
       <c r="H20">
-        <v>44.169642</v>
+        <v>60.373751</v>
       </c>
       <c r="I20">
-        <v>0.01503875554977265</v>
+        <v>0.02016539685700429</v>
       </c>
       <c r="J20">
-        <v>0.01503875554977265</v>
+        <v>0.02016539685700429</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.940154666666667</v>
+        <v>3.890652666666667</v>
       </c>
       <c r="N20">
-        <v>5.820464</v>
+        <v>11.671958</v>
       </c>
       <c r="O20">
-        <v>0.04123024092854888</v>
+        <v>0.06476544661321246</v>
       </c>
       <c r="P20">
-        <v>0.04123024092854888</v>
+        <v>0.06476544661321246</v>
       </c>
       <c r="Q20">
-        <v>28.565312350432</v>
+        <v>78.29776510827311</v>
       </c>
       <c r="R20">
-        <v>257.087811153888</v>
+        <v>704.679885974458</v>
       </c>
       <c r="S20">
-        <v>0.0006200515145826781</v>
+        <v>0.001306020933576553</v>
       </c>
       <c r="T20">
-        <v>0.0006200515145826779</v>
+        <v>0.001306020933576553</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>14.723214</v>
+        <v>20.12458366666667</v>
       </c>
       <c r="H21">
-        <v>44.169642</v>
+        <v>60.373751</v>
       </c>
       <c r="I21">
-        <v>0.01503875554977265</v>
+        <v>0.02016539685700429</v>
       </c>
       <c r="J21">
-        <v>0.01503875554977265</v>
+        <v>0.02016539685700429</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>5.352974</v>
       </c>
       <c r="O21">
-        <v>0.03791869646548077</v>
+        <v>0.02970262160118417</v>
       </c>
       <c r="P21">
-        <v>0.03791869646548075</v>
+        <v>0.02970262160118416</v>
       </c>
       <c r="Q21">
-        <v>26.270993912812</v>
+        <v>35.90879104283044</v>
       </c>
       <c r="R21">
-        <v>236.438945215308</v>
+        <v>323.179119385474</v>
       </c>
       <c r="S21">
-        <v>0.0005702500069103935</v>
+        <v>0.0005989651522813069</v>
       </c>
       <c r="T21">
-        <v>0.0005702500069103933</v>
+        <v>0.0005989651522813068</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>14.723214</v>
+        <v>20.12458366666667</v>
       </c>
       <c r="H22">
-        <v>44.169642</v>
+        <v>60.373751</v>
       </c>
       <c r="I22">
-        <v>0.01503875554977265</v>
+        <v>0.02016539685700429</v>
       </c>
       <c r="J22">
-        <v>0.01503875554977265</v>
+        <v>0.02016539685700429</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>9.084400666666667</v>
+        <v>14.15274033333333</v>
       </c>
       <c r="N22">
-        <v>27.253202</v>
+        <v>42.458221</v>
       </c>
       <c r="O22">
-        <v>0.1930526646216539</v>
+        <v>0.2355924897491472</v>
       </c>
       <c r="P22">
-        <v>0.1930526646216539</v>
+        <v>0.2355924897491471</v>
       </c>
       <c r="Q22">
-        <v>133.751575077076</v>
+        <v>284.8180069507746</v>
       </c>
       <c r="R22">
-        <v>1203.764175693684</v>
+        <v>2563.362062556971</v>
       </c>
       <c r="S22">
-        <v>0.002903271831477296</v>
+        <v>0.004750816052321268</v>
       </c>
       <c r="T22">
-        <v>0.002903271831477296</v>
+        <v>0.004750816052321267</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>14.723214</v>
+        <v>20.12458366666667</v>
       </c>
       <c r="H23">
-        <v>44.169642</v>
+        <v>60.373751</v>
       </c>
       <c r="I23">
-        <v>0.01503875554977265</v>
+        <v>0.02016539685700429</v>
       </c>
       <c r="J23">
-        <v>0.01503875554977265</v>
+        <v>0.02016539685700429</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>29.348104</v>
+        <v>37.09331533333333</v>
       </c>
       <c r="N23">
-        <v>88.04431199999999</v>
+        <v>111.279946</v>
       </c>
       <c r="O23">
-        <v>0.6236767714993731</v>
+        <v>0.6174709848839556</v>
       </c>
       <c r="P23">
-        <v>0.6236767714993731</v>
+        <v>0.6174709848839556</v>
       </c>
       <c r="Q23">
-        <v>432.098415686256</v>
+        <v>746.4875278997162</v>
       </c>
       <c r="R23">
-        <v>3888.885741176304</v>
+        <v>6718.387751097445</v>
       </c>
       <c r="S23">
-        <v>0.009379322508650485</v>
+        <v>0.01245154745787026</v>
       </c>
       <c r="T23">
-        <v>0.009379322508650485</v>
+        <v>0.01245154745787026</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>14.723214</v>
+        <v>20.12458366666667</v>
       </c>
       <c r="H24">
-        <v>44.169642</v>
+        <v>60.373751</v>
       </c>
       <c r="I24">
-        <v>0.01503875554977265</v>
+        <v>0.02016539685700429</v>
       </c>
       <c r="J24">
-        <v>0.01503875554977265</v>
+        <v>0.02016539685700429</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.013948333333333</v>
+        <v>1.368174333333333</v>
       </c>
       <c r="N24">
-        <v>3.041845</v>
+        <v>4.104523</v>
       </c>
       <c r="O24">
-        <v>0.02154742340426842</v>
+        <v>0.02277520748697028</v>
       </c>
       <c r="P24">
-        <v>0.02154742340426842</v>
+        <v>0.02277520748697028</v>
       </c>
       <c r="Q24">
-        <v>14.92857829661</v>
+        <v>27.53393884175255</v>
       </c>
       <c r="R24">
-        <v>134.35720466949</v>
+        <v>247.805449575773</v>
       </c>
       <c r="S24">
-        <v>0.0003240464333042428</v>
+        <v>0.000459271097475371</v>
       </c>
       <c r="T24">
-        <v>0.0003240464333042427</v>
+        <v>0.000459271097475371</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>14.723214</v>
+        <v>20.12458366666667</v>
       </c>
       <c r="H25">
-        <v>44.169642</v>
+        <v>60.373751</v>
       </c>
       <c r="I25">
-        <v>0.01503875554977265</v>
+        <v>0.02016539685700429</v>
       </c>
       <c r="J25">
-        <v>0.01503875554977265</v>
+        <v>0.02016539685700429</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.885660666666666</v>
+        <v>1.783761666666667</v>
       </c>
       <c r="N25">
-        <v>11.656982</v>
+        <v>5.351285</v>
       </c>
       <c r="O25">
-        <v>0.08257420308067495</v>
+        <v>0.02969324966553038</v>
       </c>
       <c r="P25">
-        <v>0.08257420308067492</v>
+        <v>0.02969324966553038</v>
       </c>
       <c r="Q25">
-        <v>57.209413526716</v>
+        <v>35.89746090222611</v>
       </c>
       <c r="R25">
-        <v>514.884721740444</v>
+        <v>323.077148120035</v>
       </c>
       <c r="S25">
-        <v>0.001241813254847554</v>
+        <v>0.0005987761634795299</v>
       </c>
       <c r="T25">
-        <v>0.001241813254847554</v>
+        <v>0.0005987761634795299</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2037,10 +2037,10 @@
         <v>2.293185</v>
       </c>
       <c r="I26">
-        <v>0.0007807771827855292</v>
+        <v>0.0007659452133681303</v>
       </c>
       <c r="J26">
-        <v>0.0007807771827855293</v>
+        <v>0.0007659452133681304</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.940154666666667</v>
+        <v>3.890652666666667</v>
       </c>
       <c r="N26">
-        <v>5.820464</v>
+        <v>11.671958</v>
       </c>
       <c r="O26">
-        <v>0.04123024092854888</v>
+        <v>0.06476544661321246</v>
       </c>
       <c r="P26">
-        <v>0.04123024092854888</v>
+        <v>0.06476544661321246</v>
       </c>
       <c r="Q26">
-        <v>1.483044526426667</v>
+        <v>2.973995445136666</v>
       </c>
       <c r="R26">
-        <v>13.34740073784</v>
+        <v>26.76595900623</v>
       </c>
       <c r="S26">
-        <v>3.219163135776102E-05</v>
+        <v>4.960678382503927E-05</v>
       </c>
       <c r="T26">
-        <v>3.219163135776102E-05</v>
+        <v>4.960678382503928E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2099,10 +2099,10 @@
         <v>2.293185</v>
       </c>
       <c r="I27">
-        <v>0.0007807771827855292</v>
+        <v>0.0007659452133681303</v>
       </c>
       <c r="J27">
-        <v>0.0007807771827855293</v>
+        <v>0.0007659452133681304</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,10 +2117,10 @@
         <v>5.352974</v>
       </c>
       <c r="O27">
-        <v>0.03791869646548077</v>
+        <v>0.02970262160118417</v>
       </c>
       <c r="P27">
-        <v>0.03791869646548075</v>
+        <v>0.02970262160118416</v>
       </c>
       <c r="Q27">
         <v>1.363928853576666</v>
@@ -2129,10 +2129,10 @@
         <v>12.27535968219</v>
       </c>
       <c r="S27">
-        <v>2.960605300121768E-05</v>
+        <v>2.275058083991184E-05</v>
       </c>
       <c r="T27">
-        <v>2.960605300121767E-05</v>
+        <v>2.275058083991184E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2161,10 +2161,10 @@
         <v>2.293185</v>
       </c>
       <c r="I28">
-        <v>0.0007807771827855292</v>
+        <v>0.0007659452133681303</v>
       </c>
       <c r="J28">
-        <v>0.0007807771827855293</v>
+        <v>0.0007659452133681304</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>9.084400666666667</v>
+        <v>14.15274033333333</v>
       </c>
       <c r="N28">
-        <v>27.253202</v>
+        <v>42.458221</v>
       </c>
       <c r="O28">
-        <v>0.1930526646216539</v>
+        <v>0.2355924897491472</v>
       </c>
       <c r="P28">
-        <v>0.1930526646216539</v>
+        <v>0.2355924897491471</v>
       </c>
       <c r="Q28">
-        <v>6.944070447596666</v>
+        <v>10.81828394709833</v>
       </c>
       <c r="R28">
-        <v>62.49663402837</v>
+        <v>97.364555523885</v>
       </c>
       <c r="S28">
-        <v>0.0001507311156125346</v>
+        <v>0.0001804509398288396</v>
       </c>
       <c r="T28">
-        <v>0.0001507311156125346</v>
+        <v>0.0001804509398288396</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2223,10 +2223,10 @@
         <v>2.293185</v>
       </c>
       <c r="I29">
-        <v>0.0007807771827855292</v>
+        <v>0.0007659452133681303</v>
       </c>
       <c r="J29">
-        <v>0.0007807771827855293</v>
+        <v>0.0007659452133681304</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>29.348104</v>
+        <v>37.09331533333333</v>
       </c>
       <c r="N29">
-        <v>88.04431199999999</v>
+        <v>111.279946</v>
       </c>
       <c r="O29">
-        <v>0.6236767714993731</v>
+        <v>0.6174709848839556</v>
       </c>
       <c r="P29">
-        <v>0.6236767714993731</v>
+        <v>0.6174709848839556</v>
       </c>
       <c r="Q29">
-        <v>22.43354395707999</v>
+        <v>28.35394477422333</v>
       </c>
       <c r="R29">
-        <v>201.90189561372</v>
+        <v>255.18550296801</v>
       </c>
       <c r="S29">
-        <v>0.0004869525926200547</v>
+        <v>0.0004729489452655709</v>
       </c>
       <c r="T29">
-        <v>0.0004869525926200548</v>
+        <v>0.000472948945265571</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2285,10 +2285,10 @@
         <v>2.293185</v>
       </c>
       <c r="I30">
-        <v>0.0007807771827855292</v>
+        <v>0.0007659452133681303</v>
       </c>
       <c r="J30">
-        <v>0.0007807771827855293</v>
+        <v>0.0007659452133681304</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.013948333333333</v>
+        <v>1.368174333333333</v>
       </c>
       <c r="N30">
-        <v>3.041845</v>
+        <v>4.104523</v>
       </c>
       <c r="O30">
-        <v>0.02154742340426842</v>
+        <v>0.02277520748697028</v>
       </c>
       <c r="P30">
-        <v>0.02154742340426842</v>
+        <v>0.02277520748697028</v>
       </c>
       <c r="Q30">
-        <v>0.7750570362583333</v>
+        <v>1.045825619528333</v>
       </c>
       <c r="R30">
-        <v>6.975513326325</v>
+        <v>9.412430575755</v>
       </c>
       <c r="S30">
-        <v>1.682373654187168E-05</v>
+        <v>1.744456115811089E-05</v>
       </c>
       <c r="T30">
-        <v>1.682373654187167E-05</v>
+        <v>1.744456115811089E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2347,10 +2347,10 @@
         <v>2.293185</v>
       </c>
       <c r="I31">
-        <v>0.0007807771827855292</v>
+        <v>0.0007659452133681303</v>
       </c>
       <c r="J31">
-        <v>0.0007807771827855293</v>
+        <v>0.0007659452133681304</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>3.885660666666666</v>
+        <v>1.783761666666667</v>
       </c>
       <c r="N31">
-        <v>11.656982</v>
+        <v>5.351285</v>
       </c>
       <c r="O31">
-        <v>0.08257420308067495</v>
+        <v>0.02969324966553038</v>
       </c>
       <c r="P31">
-        <v>0.08257420308067492</v>
+        <v>0.02969324966553038</v>
       </c>
       <c r="Q31">
-        <v>2.970179585296666</v>
+        <v>1.363498499191667</v>
       </c>
       <c r="R31">
-        <v>26.73161626767</v>
+        <v>12.271486492725</v>
       </c>
       <c r="S31">
-        <v>6.447205365208955E-05</v>
+        <v>2.274340245065783E-05</v>
       </c>
       <c r="T31">
-        <v>6.447205365208954E-05</v>
+        <v>2.274340245065783E-05</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G32">
-        <v>1.432248333333334</v>
+        <v>0.03076633333333334</v>
       </c>
       <c r="H32">
-        <v>4.296745</v>
+        <v>0.09229900000000001</v>
       </c>
       <c r="I32">
-        <v>0.001462943659690696</v>
+        <v>3.082872827472056E-05</v>
       </c>
       <c r="J32">
-        <v>0.001462943659690696</v>
+        <v>3.082872827472056E-05</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.940154666666667</v>
+        <v>3.890652666666667</v>
       </c>
       <c r="N32">
-        <v>5.820464</v>
+        <v>11.671958</v>
       </c>
       <c r="O32">
-        <v>0.04123024092854888</v>
+        <v>0.06476544661321246</v>
       </c>
       <c r="P32">
-        <v>0.04123024092854888</v>
+        <v>0.06476544661321246</v>
       </c>
       <c r="Q32">
-        <v>2.778783287742223</v>
+        <v>0.1197011168268889</v>
       </c>
       <c r="R32">
-        <v>25.00904958968</v>
+        <v>1.077310051442</v>
       </c>
       <c r="S32">
-        <v>6.031751955394044E-05</v>
+        <v>1.996636355229648E-06</v>
       </c>
       <c r="T32">
-        <v>6.031751955394043E-05</v>
+        <v>1.996636355229648E-06</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G33">
-        <v>1.432248333333334</v>
+        <v>0.03076633333333334</v>
       </c>
       <c r="H33">
-        <v>4.296745</v>
+        <v>0.09229900000000001</v>
       </c>
       <c r="I33">
-        <v>0.001462943659690696</v>
+        <v>3.082872827472056E-05</v>
       </c>
       <c r="J33">
-        <v>0.001462943659690696</v>
+        <v>3.082872827472056E-05</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>5.352974</v>
       </c>
       <c r="O33">
-        <v>0.03791869646548077</v>
+        <v>0.02970262160118417</v>
       </c>
       <c r="P33">
-        <v>0.03791869646548075</v>
+        <v>0.02970262160118416</v>
       </c>
       <c r="Q33">
-        <v>2.555596029958889</v>
+        <v>0.05489712746955556</v>
       </c>
       <c r="R33">
-        <v>23.00036426963</v>
+        <v>0.494074147226</v>
       </c>
       <c r="S33">
-        <v>5.54729165779111E-05</v>
+        <v>9.15694050389752E-07</v>
       </c>
       <c r="T33">
-        <v>5.547291657791108E-05</v>
+        <v>9.156940503897519E-07</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G34">
-        <v>1.432248333333334</v>
+        <v>0.03076633333333334</v>
       </c>
       <c r="H34">
-        <v>4.296745</v>
+        <v>0.09229900000000001</v>
       </c>
       <c r="I34">
-        <v>0.001462943659690696</v>
+        <v>3.082872827472056E-05</v>
       </c>
       <c r="J34">
-        <v>0.001462943659690696</v>
+        <v>3.082872827472056E-05</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>9.084400666666667</v>
+        <v>14.15274033333333</v>
       </c>
       <c r="N34">
-        <v>27.253202</v>
+        <v>42.458221</v>
       </c>
       <c r="O34">
-        <v>0.1930526646216539</v>
+        <v>0.2355924897491472</v>
       </c>
       <c r="P34">
-        <v>0.1930526646216539</v>
+        <v>0.2355924897491471</v>
       </c>
       <c r="Q34">
-        <v>13.01111771416556</v>
+        <v>0.4354279266754445</v>
       </c>
       <c r="R34">
-        <v>117.10005942749</v>
+        <v>3.918851340079001</v>
       </c>
       <c r="S34">
-        <v>0.000282425171694643</v>
+        <v>7.263016850041348E-06</v>
       </c>
       <c r="T34">
-        <v>0.000282425171694643</v>
+        <v>7.263016850041347E-06</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G35">
-        <v>1.432248333333334</v>
+        <v>0.03076633333333334</v>
       </c>
       <c r="H35">
-        <v>4.296745</v>
+        <v>0.09229900000000001</v>
       </c>
       <c r="I35">
-        <v>0.001462943659690696</v>
+        <v>3.082872827472056E-05</v>
       </c>
       <c r="J35">
-        <v>0.001462943659690696</v>
+        <v>3.082872827472056E-05</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>29.348104</v>
+        <v>37.09331533333333</v>
       </c>
       <c r="N35">
-        <v>88.04431199999999</v>
+        <v>111.279946</v>
       </c>
       <c r="O35">
-        <v>0.6236767714993731</v>
+        <v>0.6174709848839556</v>
       </c>
       <c r="P35">
-        <v>0.6236767714993731</v>
+        <v>0.6174709848839556</v>
       </c>
       <c r="Q35">
-        <v>42.03377304049334</v>
+        <v>1.141225303983778</v>
       </c>
       <c r="R35">
-        <v>378.30395736444</v>
+        <v>10.271027735854</v>
       </c>
       <c r="S35">
-        <v>0.000912403978561371</v>
+        <v>1.903584521051155E-05</v>
       </c>
       <c r="T35">
-        <v>0.000912403978561371</v>
+        <v>1.903584521051155E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G36">
-        <v>1.432248333333334</v>
+        <v>0.03076633333333334</v>
       </c>
       <c r="H36">
-        <v>4.296745</v>
+        <v>0.09229900000000001</v>
       </c>
       <c r="I36">
-        <v>0.001462943659690696</v>
+        <v>3.082872827472056E-05</v>
       </c>
       <c r="J36">
-        <v>0.001462943659690696</v>
+        <v>3.082872827472056E-05</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.013948333333333</v>
+        <v>1.368174333333333</v>
       </c>
       <c r="N36">
-        <v>3.041845</v>
+        <v>4.104523</v>
       </c>
       <c r="O36">
-        <v>0.02154742340426842</v>
+        <v>0.02277520748697028</v>
       </c>
       <c r="P36">
-        <v>0.02154742340426842</v>
+        <v>0.02277520748697028</v>
       </c>
       <c r="Q36">
-        <v>1.452225810502778</v>
+        <v>0.04209370759744445</v>
       </c>
       <c r="R36">
-        <v>13.070032294525</v>
+        <v>0.3788433683770001</v>
       </c>
       <c r="S36">
-        <v>3.152266645194541E-05</v>
+        <v>7.021306830161881E-07</v>
       </c>
       <c r="T36">
-        <v>3.15226664519454E-05</v>
+        <v>7.021306830161881E-07</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G37">
-        <v>1.432248333333334</v>
+        <v>0.03076633333333334</v>
       </c>
       <c r="H37">
-        <v>4.296745</v>
+        <v>0.09229900000000001</v>
       </c>
       <c r="I37">
-        <v>0.001462943659690696</v>
+        <v>3.082872827472056E-05</v>
       </c>
       <c r="J37">
-        <v>0.001462943659690696</v>
+        <v>3.082872827472056E-05</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>3.885660666666666</v>
+        <v>1.783761666666667</v>
       </c>
       <c r="N37">
-        <v>11.656982</v>
+        <v>5.351285</v>
       </c>
       <c r="O37">
-        <v>0.08257420308067495</v>
+        <v>0.02969324966553038</v>
       </c>
       <c r="P37">
-        <v>0.08257420308067492</v>
+        <v>0.02969324966553038</v>
       </c>
       <c r="Q37">
-        <v>5.565231013732223</v>
+        <v>0.05487980602388889</v>
       </c>
       <c r="R37">
-        <v>50.08707912359</v>
+        <v>0.493918254215</v>
       </c>
       <c r="S37">
-        <v>0.0001208014068508854</v>
+        <v>9.154051255320733E-07</v>
       </c>
       <c r="T37">
-        <v>0.0001208014068508853</v>
+        <v>9.154051255320732E-07</v>
       </c>
     </row>
   </sheetData>
